--- a/INTLINE/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
+++ b/INTLINE/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQB2"/>
+  <dimension ref="A1:CQD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12714,15 +12714,25 @@
       </c>
       <c r="CPZ1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="CQA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="CQB1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CQA1" s="1" t="inlineStr">
+      <c r="CQC1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CQB1" s="1" t="inlineStr">
+      <c r="CQD1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20130,19 +20140,25 @@
         <v>1896.31</v>
       </c>
       <c r="CPY2" t="n">
-        <v>1875.15</v>
-      </c>
-      <c r="CPZ2" t="inlineStr">
+        <v>1905.15</v>
+      </c>
+      <c r="CPZ2" t="n">
+        <v>1899.62</v>
+      </c>
+      <c r="CQA2" t="n">
+        <v>1898.35</v>
+      </c>
+      <c r="CQB2" t="inlineStr">
         <is>
           <t>TOPIX</t>
         </is>
       </c>
-      <c r="CQA2" t="inlineStr">
+      <c r="CQC2" t="inlineStr">
         <is>
           <t>TOPIX Index, Close</t>
         </is>
       </c>
-      <c r="CQB2" t="inlineStr">
+      <c r="CQD2" t="inlineStr">
         <is>
           <t>Index: 1968.01.04=100</t>
         </is>

--- a/INTLINE/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
+++ b/INTLINE/data/158/TSE/TOPIX/TOPIX Index - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CQK2"/>
+  <dimension ref="A1:CQL2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12759,15 +12759,20 @@
       </c>
       <c r="CQI1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="CQJ1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="CQJ1" s="1" t="inlineStr">
+      <c r="CQK1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="CQK1" s="1" t="inlineStr">
+      <c r="CQL1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -20202,19 +20207,22 @@
         <v>1835.9</v>
       </c>
       <c r="CQH2" t="n">
-        <v>1856.13</v>
-      </c>
-      <c r="CQI2" t="inlineStr">
+        <v>1866.72</v>
+      </c>
+      <c r="CQI2" t="n">
+        <v>1886.53</v>
+      </c>
+      <c r="CQJ2" t="inlineStr">
         <is>
           <t>TOPIX</t>
         </is>
       </c>
-      <c r="CQJ2" t="inlineStr">
+      <c r="CQK2" t="inlineStr">
         <is>
           <t>TOPIX Index, Close</t>
         </is>
       </c>
-      <c r="CQK2" t="inlineStr">
+      <c r="CQL2" t="inlineStr">
         <is>
           <t>Index: 1968.01.04=100</t>
         </is>
